--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -440,7 +427,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -491,6 +478,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,22 +458,1789 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>貴</t>
+          <t>顧客</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gùi</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Gui</t>
+          <t>gùkè</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[sound:貴.mp3]</t>
+          <t>[sound:顧客.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>站</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zhàn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[sound:站.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>野餐</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>yěcān</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PICNICS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[sound:野餐.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超市</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>chāoshì</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>supermarket</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[sound:超市.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>沙發</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>shāfā</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Couch</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[sound:沙發.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>時鐘</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>shízhōng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Clock</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[sound:時鐘.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>白板</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>báibǎn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>White board</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[sound:白板.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bái</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[sound:白.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>黑</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hēi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hei</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[sound:黑.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hóng</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[sound:紅.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>藍</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lán</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[sound:藍.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>綠</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lv̀</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Lv</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[sound:綠.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>黃</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>huáng</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>黄</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[sound:黃.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>橙</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>chéng</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[sound:橙.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lājí</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Trash</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[sound:垃圾.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>吃醋</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>chīcù</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Jealousy</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[sound:吃醋.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>羨慕</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>xiànmù</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Envy</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[sound:羨慕.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>車庫</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>chēkù</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>garage</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[sound:車庫.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>非常</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>fēicháng</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Very</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[sound:非常.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>běijīng</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[sound:北京.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>柏林</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bǎilín</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[sound:柏林.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>西班牙</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>xībānyá</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[sound:西班牙.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>比利時</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bǐlì shí</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[sound:比利時.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>巴黎</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bālí</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[sound:巴黎.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>首都</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>shǒudū</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Capital city</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[sound:首都.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>地區</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>dìqū</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[sound:地區.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>狀態</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>zhuàngtài</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[sound:狀態.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>浴室</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yùshì</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bathroom</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[sound:浴室.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>洗手間</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>xǐshǒu jiān</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Washroom</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[sound:洗手間.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>數字</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>shùzì</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Numbered</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[sound:數字.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>盆栽</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>pénzāi</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Potted plants</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[sound:盆栽.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>花</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>huā</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>花</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[sound:花.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>蔥油餅</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cōngyóubǐng</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>scallion pancake</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[sound:蔥油餅.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>強</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>qiáng</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[sound:強.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>果子</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>guǒzǐ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fruit</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[sound:果子.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>鍋</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>guō</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Guo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[sound:鍋.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>平鍋</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>píngguō</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[sound:平鍋.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>蔬菜</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>shūcài</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Vegetable</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[sound:蔬菜.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>牛肉</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>níuròu</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Beef</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[sound:牛肉.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>豬肉</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>zhūròu</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Pork</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[sound:豬肉.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>羊肉</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>yángròu</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Lamb and mutton</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[sound:羊肉.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>雞</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>jī</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Chicken</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[sound:雞.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>衣櫃</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>yīgùi</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Wardrobe</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[sound:衣櫃.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>帶走</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>dài zǒu</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>carry away</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[sound:帶走.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>點菜</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>diǎncài</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[sound:點菜.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>架子</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>jiàzǐ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cabinet</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[sound:架子.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>書架</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>shūjià</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Bookcase</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[sound:書架.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>一張紙</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>yīzhāngzhǐ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A piece of paper</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[sound:一張紙.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>租</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>zū</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[sound:租.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>租金</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zūjīn</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[sound:租金.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>窗戶</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>chuānghù</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Window</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[sound:窗戶.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>計程車</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>jìchéngchē</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Taxicab</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[sound:計程車.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>我自己</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>wǒ zìjǐ</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>myself</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[sound:我自己.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>還沒</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>huánméi</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>not yet</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[sound:還沒.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>決定</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>juédìng</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Decisions</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[sound:決定.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>特別的</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tèbié de</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Specially</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[sound:特別的.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>打折</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dǎzhé</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[sound:打折.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>信用卡</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>xìnyòngqiǎ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Credit card</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[sound:信用卡.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>nián</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Years</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[sound:年.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>點</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>diǎn</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>点</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[sound:點.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>有精</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>yǒu jīng</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[sound:有精.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>如果</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rúguǒ</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[sound:如果.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>成為</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>chéngwèi</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>becoming</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[sound:成為.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>巧克力</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>qiǎokèlì</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Chocolates</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[sound:巧克力.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>蘋果</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>pínguǒ</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[sound:蘋果.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>香蕉</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>xiāngjiāo</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[sound:香蕉.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>草莓</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cǎoméi</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Garden strawberry</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[sound:草莓.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>梨</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>lí</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Pear</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[sound:梨.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>葡萄</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>pútáo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Grape</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[sound:葡萄.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>檸檬</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>níngméng</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>lemons</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[sound:檸檬.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>桃子</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>táozǐ</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Peach</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[sound:桃子.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>切</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>qiē</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cut</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[sound:切.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>婚禮</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>hūnlǐ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Wedding</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[sound:婚禮.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>結婚</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>jiéhūn</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Marriage</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[sound:結婚.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>生日</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>shēngrì</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Date of Birth</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[sound:生日.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>排球</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>páiqíu</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Volleyball</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[sound:排球.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>有時候</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>yǒu shíhòu</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>sometimes</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[sound:有時候.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>絕不</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>juébù</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>absolutely not</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[sound:絕不.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>總是</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>zǒngshì</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ALWAYS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[sound:總是.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>游泳</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>yóuyǒng</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[sound:游泳.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>游泳池</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>yóuyǒngchí</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Swimming Pool</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[sound:游泳池.mp3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>健身房</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>jiànshēnfáng</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>gym</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[sound:健身房.mp3]</t>
         </is>
       </c>
     </row>
